--- a/outputs-HGR-r202/test-g__Streptococcus_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Streptococcus_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Row</t>
   </si>
@@ -32,6 +32,84 @@
   </si>
   <si>
     <t>even_MAG-GUT1263.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT42689.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT44104.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT47063.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT47559.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48735.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49051.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49384.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT6224.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT83503.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89273.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89332.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89668.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89684.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89695.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89697.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89858.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89860.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT89941.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90444.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90475.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90508.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90581.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT90913.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91144.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91355.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT915.fa</t>
   </si>
   <si>
     <t>1-s__Streptococcus agalactiae</t>
@@ -145,10 +223,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="true"/>
+    <col min="1" max="1" width="22.42578125" customWidth="true"/>
     <col min="2" max="2" width="27.28515625" customWidth="true"/>
     <col min="3" max="3" width="27.28515625" customWidth="true"/>
     <col min="4" max="4" width="25.5703125" customWidth="true"/>
@@ -178,70 +256,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
@@ -599,6 +677,1852 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.0058694159219454325</v>
+      </c>
+      <c r="C7">
+        <v>0.0051178261161053335</v>
+      </c>
+      <c r="D7">
+        <v>0.0073413339058848396</v>
+      </c>
+      <c r="E7">
+        <v>0.002373414455475334</v>
+      </c>
+      <c r="F7">
+        <v>0.071180678348217841</v>
+      </c>
+      <c r="G7">
+        <v>0.044648662550833794</v>
+      </c>
+      <c r="H7">
+        <v>0.22464389905309809</v>
+      </c>
+      <c r="I7">
+        <v>0.064346090016245042</v>
+      </c>
+      <c r="J7">
+        <v>0.0059000265054257872</v>
+      </c>
+      <c r="K7">
+        <v>0.0090929841454936797</v>
+      </c>
+      <c r="L7">
+        <v>0.028162674193915438</v>
+      </c>
+      <c r="M7">
+        <v>0.064956807666659511</v>
+      </c>
+      <c r="N7">
+        <v>0.004283638235474849</v>
+      </c>
+      <c r="O7">
+        <v>0.0029168227919393009</v>
+      </c>
+      <c r="P7">
+        <v>0.00036179175290102552</v>
+      </c>
+      <c r="Q7">
+        <v>0.025817277312397399</v>
+      </c>
+      <c r="R7">
+        <v>0.14607311108761095</v>
+      </c>
+      <c r="S7">
+        <v>0.17926165677263328</v>
+      </c>
+      <c r="T7">
+        <v>0.097702114383034833</v>
+      </c>
+      <c r="U7">
+        <v>0.0068371478505517089</v>
+      </c>
+      <c r="V7">
+        <v>0.003112626934156541</v>
+      </c>
+      <c r="W7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.021213624858059013</v>
+      </c>
+      <c r="C8">
+        <v>0.0051885666864108487</v>
+      </c>
+      <c r="D8">
+        <v>0.043768128699238587</v>
+      </c>
+      <c r="E8">
+        <v>0.0022152545534274482</v>
+      </c>
+      <c r="F8">
+        <v>0.069065099372849922</v>
+      </c>
+      <c r="G8">
+        <v>0.039107427184290361</v>
+      </c>
+      <c r="H8">
+        <v>0.21745311509042858</v>
+      </c>
+      <c r="I8">
+        <v>0.028714596892094563</v>
+      </c>
+      <c r="J8">
+        <v>0.015749252192592343</v>
+      </c>
+      <c r="K8">
+        <v>0.0077507628426794432</v>
+      </c>
+      <c r="L8">
+        <v>0.028313945160607906</v>
+      </c>
+      <c r="M8">
+        <v>0.06020293689169412</v>
+      </c>
+      <c r="N8">
+        <v>0.0013090719846470759</v>
+      </c>
+      <c r="O8">
+        <v>0.0049624262853406615</v>
+      </c>
+      <c r="P8">
+        <v>0.00028752989032421292</v>
+      </c>
+      <c r="Q8">
+        <v>0.029784835206131871</v>
+      </c>
+      <c r="R8">
+        <v>0.13629855670268146</v>
+      </c>
+      <c r="S8">
+        <v>0.17086418610724555</v>
+      </c>
+      <c r="T8">
+        <v>0.10732822164386832</v>
+      </c>
+      <c r="U8">
+        <v>0.0064400888241017713</v>
+      </c>
+      <c r="V8">
+        <v>0.0039823729312861668</v>
+      </c>
+      <c r="W8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.00010453640383033376</v>
+      </c>
+      <c r="C9">
+        <v>1.1430697258958661e-05</v>
+      </c>
+      <c r="D9">
+        <v>1.1915551192592702e-08</v>
+      </c>
+      <c r="E9">
+        <v>0.0064445257749719889</v>
+      </c>
+      <c r="F9">
+        <v>0.022037191610972628</v>
+      </c>
+      <c r="G9">
+        <v>0.066920895986327125</v>
+      </c>
+      <c r="H9">
+        <v>0.022814983653847189</v>
+      </c>
+      <c r="I9">
+        <v>0.0049043830567940191</v>
+      </c>
+      <c r="J9">
+        <v>0.0002369989850382023</v>
+      </c>
+      <c r="K9">
+        <v>0.0071309832035848101</v>
+      </c>
+      <c r="L9">
+        <v>0.028170910650096605</v>
+      </c>
+      <c r="M9">
+        <v>0.032005942805599687</v>
+      </c>
+      <c r="N9">
+        <v>0.012729478696170131</v>
+      </c>
+      <c r="O9">
+        <v>0.0019988527402950321</v>
+      </c>
+      <c r="P9">
+        <v>0.0094243615282894617</v>
+      </c>
+      <c r="Q9">
+        <v>0.23640132713454654</v>
+      </c>
+      <c r="R9">
+        <v>0.18881997550387497</v>
+      </c>
+      <c r="S9">
+        <v>0.19779698095773665</v>
+      </c>
+      <c r="T9">
+        <v>0.14340310886548741</v>
+      </c>
+      <c r="U9">
+        <v>0.010302868087925228</v>
+      </c>
+      <c r="V9">
+        <v>0.0083402517418018091</v>
+      </c>
+      <c r="W9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.023657931422750352</v>
+      </c>
+      <c r="C10">
+        <v>0.010557441190489255</v>
+      </c>
+      <c r="D10">
+        <v>0.0078490397894405532</v>
+      </c>
+      <c r="E10">
+        <v>0.0030890994652448727</v>
+      </c>
+      <c r="F10">
+        <v>0.071954191847470927</v>
+      </c>
+      <c r="G10">
+        <v>0.045295965382684711</v>
+      </c>
+      <c r="H10">
+        <v>0.15734800681278757</v>
+      </c>
+      <c r="I10">
+        <v>0.054242248977345225</v>
+      </c>
+      <c r="J10">
+        <v>0.0077151270054312904</v>
+      </c>
+      <c r="K10">
+        <v>0.011046094832519769</v>
+      </c>
+      <c r="L10">
+        <v>0.026717140117182146</v>
+      </c>
+      <c r="M10">
+        <v>0.056112788118725568</v>
+      </c>
+      <c r="N10">
+        <v>0.0046437974248426505</v>
+      </c>
+      <c r="O10">
+        <v>0.0041735083215282565</v>
+      </c>
+      <c r="P10">
+        <v>0.00059007508324069691</v>
+      </c>
+      <c r="Q10">
+        <v>0.080044429801856526</v>
+      </c>
+      <c r="R10">
+        <v>0.13809483905455083</v>
+      </c>
+      <c r="S10">
+        <v>0.17947473965297661</v>
+      </c>
+      <c r="T10">
+        <v>0.10634506782725561</v>
+      </c>
+      <c r="U10">
+        <v>0.0076979283742350238</v>
+      </c>
+      <c r="V10">
+        <v>0.0033505394974418048</v>
+      </c>
+      <c r="W10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.00092879956442215572</v>
+      </c>
+      <c r="C11">
+        <v>0.0013587535622159406</v>
+      </c>
+      <c r="D11">
+        <v>5.6536957698351125e-08</v>
+      </c>
+      <c r="E11">
+        <v>0.072158742635175549</v>
+      </c>
+      <c r="F11">
+        <v>0.028800321163416617</v>
+      </c>
+      <c r="G11">
+        <v>0.066170124847374542</v>
+      </c>
+      <c r="H11">
+        <v>0.031812414016748621</v>
+      </c>
+      <c r="I11">
+        <v>0.077318566913357936</v>
+      </c>
+      <c r="J11">
+        <v>0.0036315561204045112</v>
+      </c>
+      <c r="K11">
+        <v>0.013020881284668977</v>
+      </c>
+      <c r="L11">
+        <v>0.023924266294225945</v>
+      </c>
+      <c r="M11">
+        <v>0.047846378589475276</v>
+      </c>
+      <c r="N11">
+        <v>0.0055248637448268587</v>
+      </c>
+      <c r="O11">
+        <v>0.0002137359018976415</v>
+      </c>
+      <c r="P11">
+        <v>0.022479996294703743</v>
+      </c>
+      <c r="Q11">
+        <v>0.064064390433486329</v>
+      </c>
+      <c r="R11">
+        <v>0.14146954903391187</v>
+      </c>
+      <c r="S11">
+        <v>0.19233322899922708</v>
+      </c>
+      <c r="T11">
+        <v>0.18510365726988021</v>
+      </c>
+      <c r="U11">
+        <v>0.0057489315804765658</v>
+      </c>
+      <c r="V11">
+        <v>0.016090785213146049</v>
+      </c>
+      <c r="W11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.0004580371115402832</v>
+      </c>
+      <c r="C12">
+        <v>0.0014046533539165955</v>
+      </c>
+      <c r="D12">
+        <v>9.1547720035096767e-08</v>
+      </c>
+      <c r="E12">
+        <v>0.041940726212984204</v>
+      </c>
+      <c r="F12">
+        <v>0.028176976241271717</v>
+      </c>
+      <c r="G12">
+        <v>0.062296444370615843</v>
+      </c>
+      <c r="H12">
+        <v>0.023688958302610936</v>
+      </c>
+      <c r="I12">
+        <v>0.037995577443379759</v>
+      </c>
+      <c r="J12">
+        <v>0.0017438400041735482</v>
+      </c>
+      <c r="K12">
+        <v>0.018927667188961404</v>
+      </c>
+      <c r="L12">
+        <v>0.023838011126709056</v>
+      </c>
+      <c r="M12">
+        <v>0.026766666882893135</v>
+      </c>
+      <c r="N12">
+        <v>0.0024168160014383768</v>
+      </c>
+      <c r="O12">
+        <v>0.00076053676059465705</v>
+      </c>
+      <c r="P12">
+        <v>0.038682450920255837</v>
+      </c>
+      <c r="Q12">
+        <v>0.19585315782304649</v>
+      </c>
+      <c r="R12">
+        <v>0.134002556708189</v>
+      </c>
+      <c r="S12">
+        <v>0.18385643999363513</v>
+      </c>
+      <c r="T12">
+        <v>0.15591953658366006</v>
+      </c>
+      <c r="U12">
+        <v>0.0063500463936802696</v>
+      </c>
+      <c r="V12">
+        <v>0.014920809028723524</v>
+      </c>
+      <c r="W12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.31846195878598715</v>
+      </c>
+      <c r="C13">
+        <v>0.0012606587781934515</v>
+      </c>
+      <c r="D13">
+        <v>0.00023769594187027744</v>
+      </c>
+      <c r="E13">
+        <v>0.0034836287698507213</v>
+      </c>
+      <c r="F13">
+        <v>0.032435799394855337</v>
+      </c>
+      <c r="G13">
+        <v>0.027456203701740779</v>
+      </c>
+      <c r="H13">
+        <v>0.056333545574891286</v>
+      </c>
+      <c r="I13">
+        <v>0.045534532597729625</v>
+      </c>
+      <c r="J13">
+        <v>0.0090193875288427441</v>
+      </c>
+      <c r="K13">
+        <v>0.0057016562456105114</v>
+      </c>
+      <c r="L13">
+        <v>0.016436735861989911</v>
+      </c>
+      <c r="M13">
+        <v>0.055779647464558074</v>
+      </c>
+      <c r="N13">
+        <v>0.049261547572862108</v>
+      </c>
+      <c r="O13">
+        <v>0.00039028662801413315</v>
+      </c>
+      <c r="P13">
+        <v>0.0016470775546124901</v>
+      </c>
+      <c r="Q13">
+        <v>0.013893297412645101</v>
+      </c>
+      <c r="R13">
+        <v>0.10611243553095331</v>
+      </c>
+      <c r="S13">
+        <v>0.15255535464383232</v>
+      </c>
+      <c r="T13">
+        <v>0.088027234679624922</v>
+      </c>
+      <c r="U13">
+        <v>0.0028253048065572197</v>
+      </c>
+      <c r="V13">
+        <v>0.01314601052477858</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.13893614482283406</v>
+      </c>
+      <c r="C14">
+        <v>0.0013214459685652574</v>
+      </c>
+      <c r="D14">
+        <v>0.00031315897554095304</v>
+      </c>
+      <c r="E14">
+        <v>0.0046412650314158138</v>
+      </c>
+      <c r="F14">
+        <v>0.046378185937415946</v>
+      </c>
+      <c r="G14">
+        <v>0.035391658953436315</v>
+      </c>
+      <c r="H14">
+        <v>0.067148297238441873</v>
+      </c>
+      <c r="I14">
+        <v>0.047755301566817544</v>
+      </c>
+      <c r="J14">
+        <v>0.023041444259322471</v>
+      </c>
+      <c r="K14">
+        <v>0.0074979714940501064</v>
+      </c>
+      <c r="L14">
+        <v>0.022377690116865696</v>
+      </c>
+      <c r="M14">
+        <v>0.056052818358386144</v>
+      </c>
+      <c r="N14">
+        <v>0.076166297332973476</v>
+      </c>
+      <c r="O14">
+        <v>0.00068663638596268566</v>
+      </c>
+      <c r="P14">
+        <v>0.0013794965001549502</v>
+      </c>
+      <c r="Q14">
+        <v>0.023718686698572713</v>
+      </c>
+      <c r="R14">
+        <v>0.12622331174896251</v>
+      </c>
+      <c r="S14">
+        <v>0.18866567736358983</v>
+      </c>
+      <c r="T14">
+        <v>0.11437392129368411</v>
+      </c>
+      <c r="U14">
+        <v>0.004119823638029662</v>
+      </c>
+      <c r="V14">
+        <v>0.013810766314977846</v>
+      </c>
+      <c r="W14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.0084308261655796374</v>
+      </c>
+      <c r="C15">
+        <v>0.0016904040769905213</v>
+      </c>
+      <c r="D15">
+        <v>0.020966894478736963</v>
+      </c>
+      <c r="E15">
+        <v>0.0011691643024641239</v>
+      </c>
+      <c r="F15">
+        <v>0.059742187965418483</v>
+      </c>
+      <c r="G15">
+        <v>0.059289267721201917</v>
+      </c>
+      <c r="H15">
+        <v>0.20793489026080211</v>
+      </c>
+      <c r="I15">
+        <v>0.075929884324941133</v>
+      </c>
+      <c r="J15">
+        <v>0.002189854569960232</v>
+      </c>
+      <c r="K15">
+        <v>0.0059791164768642829</v>
+      </c>
+      <c r="L15">
+        <v>0.027918048686669736</v>
+      </c>
+      <c r="M15">
+        <v>0.048742023472740488</v>
+      </c>
+      <c r="N15">
+        <v>0.0020136632729851884</v>
+      </c>
+      <c r="O15">
+        <v>0.0031394730299288509</v>
+      </c>
+      <c r="P15">
+        <v>0.00035813385309542824</v>
+      </c>
+      <c r="Q15">
+        <v>0.0349085909749468</v>
+      </c>
+      <c r="R15">
+        <v>0.14208727705468602</v>
+      </c>
+      <c r="S15">
+        <v>0.17392990537551026</v>
+      </c>
+      <c r="T15">
+        <v>0.11422478902598554</v>
+      </c>
+      <c r="U15">
+        <v>0.0070307962107925689</v>
+      </c>
+      <c r="V15">
+        <v>0.0023248086996997099</v>
+      </c>
+      <c r="W15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.010589290353235324</v>
+      </c>
+      <c r="C16">
+        <v>0.003087980677550224</v>
+      </c>
+      <c r="D16">
+        <v>0.020526737256234925</v>
+      </c>
+      <c r="E16">
+        <v>0.001755601209647096</v>
+      </c>
+      <c r="F16">
+        <v>0.080576996283075727</v>
+      </c>
+      <c r="G16">
+        <v>0.053780085487410513</v>
+      </c>
+      <c r="H16">
+        <v>0.17917218792310555</v>
+      </c>
+      <c r="I16">
+        <v>0.031043900329465243</v>
+      </c>
+      <c r="J16">
+        <v>0.021651557270760142</v>
+      </c>
+      <c r="K16">
+        <v>0.007796884199391692</v>
+      </c>
+      <c r="L16">
+        <v>0.031339013672285039</v>
+      </c>
+      <c r="M16">
+        <v>0.041636149043766051</v>
+      </c>
+      <c r="N16">
+        <v>0.0013023716779337934</v>
+      </c>
+      <c r="O16">
+        <v>0.0025801002954515123</v>
+      </c>
+      <c r="P16">
+        <v>0.00030445677432997713</v>
+      </c>
+      <c r="Q16">
+        <v>0.050052199694410236</v>
+      </c>
+      <c r="R16">
+        <v>0.13164131806047338</v>
+      </c>
+      <c r="S16">
+        <v>0.18918994615097151</v>
+      </c>
+      <c r="T16">
+        <v>0.13194674830876904</v>
+      </c>
+      <c r="U16">
+        <v>0.0066428010359626628</v>
+      </c>
+      <c r="V16">
+        <v>0.0033836742957704343</v>
+      </c>
+      <c r="W16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.010589290353235324</v>
+      </c>
+      <c r="C17">
+        <v>0.003087980677550224</v>
+      </c>
+      <c r="D17">
+        <v>0.020526737256234925</v>
+      </c>
+      <c r="E17">
+        <v>0.001755601209647096</v>
+      </c>
+      <c r="F17">
+        <v>0.080576996283075727</v>
+      </c>
+      <c r="G17">
+        <v>0.053780085487410513</v>
+      </c>
+      <c r="H17">
+        <v>0.17917218792310555</v>
+      </c>
+      <c r="I17">
+        <v>0.031043900329465243</v>
+      </c>
+      <c r="J17">
+        <v>0.021651557270760142</v>
+      </c>
+      <c r="K17">
+        <v>0.007796884199391692</v>
+      </c>
+      <c r="L17">
+        <v>0.031339013672285039</v>
+      </c>
+      <c r="M17">
+        <v>0.041636149043766051</v>
+      </c>
+      <c r="N17">
+        <v>0.0013023716779337934</v>
+      </c>
+      <c r="O17">
+        <v>0.0025801002954515123</v>
+      </c>
+      <c r="P17">
+        <v>0.00030445677432997713</v>
+      </c>
+      <c r="Q17">
+        <v>0.050052199694410236</v>
+      </c>
+      <c r="R17">
+        <v>0.13164131806047338</v>
+      </c>
+      <c r="S17">
+        <v>0.18918994615097151</v>
+      </c>
+      <c r="T17">
+        <v>0.13194674830876904</v>
+      </c>
+      <c r="U17">
+        <v>0.0066428010359626628</v>
+      </c>
+      <c r="V17">
+        <v>0.0033836742957704343</v>
+      </c>
+      <c r="W17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.010589290353235324</v>
+      </c>
+      <c r="C18">
+        <v>0.003087980677550224</v>
+      </c>
+      <c r="D18">
+        <v>0.020526737256234925</v>
+      </c>
+      <c r="E18">
+        <v>0.001755601209647096</v>
+      </c>
+      <c r="F18">
+        <v>0.080576996283075727</v>
+      </c>
+      <c r="G18">
+        <v>0.053780085487410513</v>
+      </c>
+      <c r="H18">
+        <v>0.17917218792310555</v>
+      </c>
+      <c r="I18">
+        <v>0.031043900329465243</v>
+      </c>
+      <c r="J18">
+        <v>0.021651557270760142</v>
+      </c>
+      <c r="K18">
+        <v>0.007796884199391692</v>
+      </c>
+      <c r="L18">
+        <v>0.031339013672285039</v>
+      </c>
+      <c r="M18">
+        <v>0.041636149043766051</v>
+      </c>
+      <c r="N18">
+        <v>0.0013023716779337934</v>
+      </c>
+      <c r="O18">
+        <v>0.0025801002954515123</v>
+      </c>
+      <c r="P18">
+        <v>0.00030445677432997713</v>
+      </c>
+      <c r="Q18">
+        <v>0.050052199694410236</v>
+      </c>
+      <c r="R18">
+        <v>0.13164131806047338</v>
+      </c>
+      <c r="S18">
+        <v>0.18918994615097151</v>
+      </c>
+      <c r="T18">
+        <v>0.13194674830876904</v>
+      </c>
+      <c r="U18">
+        <v>0.0066428010359626628</v>
+      </c>
+      <c r="V18">
+        <v>0.0033836742957704343</v>
+      </c>
+      <c r="W18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.010589290353235324</v>
+      </c>
+      <c r="C19">
+        <v>0.003087980677550224</v>
+      </c>
+      <c r="D19">
+        <v>0.020526737256234925</v>
+      </c>
+      <c r="E19">
+        <v>0.001755601209647096</v>
+      </c>
+      <c r="F19">
+        <v>0.080576996283075727</v>
+      </c>
+      <c r="G19">
+        <v>0.053780085487410513</v>
+      </c>
+      <c r="H19">
+        <v>0.17917218792310555</v>
+      </c>
+      <c r="I19">
+        <v>0.031043900329465243</v>
+      </c>
+      <c r="J19">
+        <v>0.021651557270760142</v>
+      </c>
+      <c r="K19">
+        <v>0.007796884199391692</v>
+      </c>
+      <c r="L19">
+        <v>0.031339013672285039</v>
+      </c>
+      <c r="M19">
+        <v>0.041636149043766051</v>
+      </c>
+      <c r="N19">
+        <v>0.0013023716779337934</v>
+      </c>
+      <c r="O19">
+        <v>0.0025801002954515123</v>
+      </c>
+      <c r="P19">
+        <v>0.00030445677432997713</v>
+      </c>
+      <c r="Q19">
+        <v>0.050052199694410236</v>
+      </c>
+      <c r="R19">
+        <v>0.13164131806047338</v>
+      </c>
+      <c r="S19">
+        <v>0.18918994615097151</v>
+      </c>
+      <c r="T19">
+        <v>0.13194674830876904</v>
+      </c>
+      <c r="U19">
+        <v>0.0066428010359626628</v>
+      </c>
+      <c r="V19">
+        <v>0.0033836742957704343</v>
+      </c>
+      <c r="W19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.0097753028318073639</v>
+      </c>
+      <c r="C20">
+        <v>0.0016167388880546142</v>
+      </c>
+      <c r="D20">
+        <v>0.12528775361634914</v>
+      </c>
+      <c r="E20">
+        <v>0.0012042717496876952</v>
+      </c>
+      <c r="F20">
+        <v>0.06779719270011518</v>
+      </c>
+      <c r="G20">
+        <v>0.043368561815398651</v>
+      </c>
+      <c r="H20">
+        <v>0.18939082031781282</v>
+      </c>
+      <c r="I20">
+        <v>0.040690785844055589</v>
+      </c>
+      <c r="J20">
+        <v>0.015066635807308663</v>
+      </c>
+      <c r="K20">
+        <v>0.0055081865515301427</v>
+      </c>
+      <c r="L20">
+        <v>0.026933997039937929</v>
+      </c>
+      <c r="M20">
+        <v>0.046450581322440607</v>
+      </c>
+      <c r="N20">
+        <v>0.0010717707261910236</v>
+      </c>
+      <c r="O20">
+        <v>0.0032253729591172633</v>
+      </c>
+      <c r="P20">
+        <v>0.00015591343606177909</v>
+      </c>
+      <c r="Q20">
+        <v>0.01450228874895171</v>
+      </c>
+      <c r="R20">
+        <v>0.12337397063628464</v>
+      </c>
+      <c r="S20">
+        <v>0.16878691685236755</v>
+      </c>
+      <c r="T20">
+        <v>0.10680763326509825</v>
+      </c>
+      <c r="U20">
+        <v>0.0058222096003713066</v>
+      </c>
+      <c r="V20">
+        <v>0.0031630952910581493</v>
+      </c>
+      <c r="W20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.0097753028318073639</v>
+      </c>
+      <c r="C21">
+        <v>0.0016167388880546142</v>
+      </c>
+      <c r="D21">
+        <v>0.12528775361634914</v>
+      </c>
+      <c r="E21">
+        <v>0.0012042717496876952</v>
+      </c>
+      <c r="F21">
+        <v>0.06779719270011518</v>
+      </c>
+      <c r="G21">
+        <v>0.043368561815398651</v>
+      </c>
+      <c r="H21">
+        <v>0.18939082031781282</v>
+      </c>
+      <c r="I21">
+        <v>0.040690785844055589</v>
+      </c>
+      <c r="J21">
+        <v>0.015066635807308663</v>
+      </c>
+      <c r="K21">
+        <v>0.0055081865515301427</v>
+      </c>
+      <c r="L21">
+        <v>0.026933997039937929</v>
+      </c>
+      <c r="M21">
+        <v>0.046450581322440607</v>
+      </c>
+      <c r="N21">
+        <v>0.0010717707261910236</v>
+      </c>
+      <c r="O21">
+        <v>0.0032253729591172633</v>
+      </c>
+      <c r="P21">
+        <v>0.00015591343606177909</v>
+      </c>
+      <c r="Q21">
+        <v>0.01450228874895171</v>
+      </c>
+      <c r="R21">
+        <v>0.12337397063628464</v>
+      </c>
+      <c r="S21">
+        <v>0.16878691685236755</v>
+      </c>
+      <c r="T21">
+        <v>0.10680763326509825</v>
+      </c>
+      <c r="U21">
+        <v>0.0058222096003713066</v>
+      </c>
+      <c r="V21">
+        <v>0.0031630952910581493</v>
+      </c>
+      <c r="W21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.010589290353235324</v>
+      </c>
+      <c r="C22">
+        <v>0.003087980677550224</v>
+      </c>
+      <c r="D22">
+        <v>0.020526737256234925</v>
+      </c>
+      <c r="E22">
+        <v>0.001755601209647096</v>
+      </c>
+      <c r="F22">
+        <v>0.080576996283075727</v>
+      </c>
+      <c r="G22">
+        <v>0.053780085487410513</v>
+      </c>
+      <c r="H22">
+        <v>0.17917218792310555</v>
+      </c>
+      <c r="I22">
+        <v>0.031043900329465243</v>
+      </c>
+      <c r="J22">
+        <v>0.021651557270760142</v>
+      </c>
+      <c r="K22">
+        <v>0.007796884199391692</v>
+      </c>
+      <c r="L22">
+        <v>0.031339013672285039</v>
+      </c>
+      <c r="M22">
+        <v>0.041636149043766051</v>
+      </c>
+      <c r="N22">
+        <v>0.0013023716779337934</v>
+      </c>
+      <c r="O22">
+        <v>0.0025801002954515123</v>
+      </c>
+      <c r="P22">
+        <v>0.00030445677432997713</v>
+      </c>
+      <c r="Q22">
+        <v>0.050052199694410236</v>
+      </c>
+      <c r="R22">
+        <v>0.13164131806047338</v>
+      </c>
+      <c r="S22">
+        <v>0.18918994615097151</v>
+      </c>
+      <c r="T22">
+        <v>0.13194674830876904</v>
+      </c>
+      <c r="U22">
+        <v>0.0066428010359626628</v>
+      </c>
+      <c r="V22">
+        <v>0.0033836742957704343</v>
+      </c>
+      <c r="W22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.010589290353235324</v>
+      </c>
+      <c r="C23">
+        <v>0.003087980677550224</v>
+      </c>
+      <c r="D23">
+        <v>0.020526737256234925</v>
+      </c>
+      <c r="E23">
+        <v>0.001755601209647096</v>
+      </c>
+      <c r="F23">
+        <v>0.080576996283075727</v>
+      </c>
+      <c r="G23">
+        <v>0.053780085487410513</v>
+      </c>
+      <c r="H23">
+        <v>0.17917218792310555</v>
+      </c>
+      <c r="I23">
+        <v>0.031043900329465243</v>
+      </c>
+      <c r="J23">
+        <v>0.021651557270760142</v>
+      </c>
+      <c r="K23">
+        <v>0.007796884199391692</v>
+      </c>
+      <c r="L23">
+        <v>0.031339013672285039</v>
+      </c>
+      <c r="M23">
+        <v>0.041636149043766051</v>
+      </c>
+      <c r="N23">
+        <v>0.0013023716779337934</v>
+      </c>
+      <c r="O23">
+        <v>0.0025801002954515123</v>
+      </c>
+      <c r="P23">
+        <v>0.00030445677432997713</v>
+      </c>
+      <c r="Q23">
+        <v>0.050052199694410236</v>
+      </c>
+      <c r="R23">
+        <v>0.13164131806047338</v>
+      </c>
+      <c r="S23">
+        <v>0.18918994615097151</v>
+      </c>
+      <c r="T23">
+        <v>0.13194674830876904</v>
+      </c>
+      <c r="U23">
+        <v>0.0066428010359626628</v>
+      </c>
+      <c r="V23">
+        <v>0.0033836742957704343</v>
+      </c>
+      <c r="W23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.010589290353235324</v>
+      </c>
+      <c r="C24">
+        <v>0.003087980677550224</v>
+      </c>
+      <c r="D24">
+        <v>0.020526737256234925</v>
+      </c>
+      <c r="E24">
+        <v>0.001755601209647096</v>
+      </c>
+      <c r="F24">
+        <v>0.080576996283075727</v>
+      </c>
+      <c r="G24">
+        <v>0.053780085487410513</v>
+      </c>
+      <c r="H24">
+        <v>0.17917218792310555</v>
+      </c>
+      <c r="I24">
+        <v>0.031043900329465243</v>
+      </c>
+      <c r="J24">
+        <v>0.021651557270760142</v>
+      </c>
+      <c r="K24">
+        <v>0.007796884199391692</v>
+      </c>
+      <c r="L24">
+        <v>0.031339013672285039</v>
+      </c>
+      <c r="M24">
+        <v>0.041636149043766051</v>
+      </c>
+      <c r="N24">
+        <v>0.0013023716779337934</v>
+      </c>
+      <c r="O24">
+        <v>0.0025801002954515123</v>
+      </c>
+      <c r="P24">
+        <v>0.00030445677432997713</v>
+      </c>
+      <c r="Q24">
+        <v>0.050052199694410236</v>
+      </c>
+      <c r="R24">
+        <v>0.13164131806047338</v>
+      </c>
+      <c r="S24">
+        <v>0.18918994615097151</v>
+      </c>
+      <c r="T24">
+        <v>0.13194674830876904</v>
+      </c>
+      <c r="U24">
+        <v>0.0066428010359626628</v>
+      </c>
+      <c r="V24">
+        <v>0.0033836742957704343</v>
+      </c>
+      <c r="W24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.010589290353235324</v>
+      </c>
+      <c r="C25">
+        <v>0.003087980677550224</v>
+      </c>
+      <c r="D25">
+        <v>0.020526737256234925</v>
+      </c>
+      <c r="E25">
+        <v>0.001755601209647096</v>
+      </c>
+      <c r="F25">
+        <v>0.080576996283075727</v>
+      </c>
+      <c r="G25">
+        <v>0.053780085487410513</v>
+      </c>
+      <c r="H25">
+        <v>0.17917218792310555</v>
+      </c>
+      <c r="I25">
+        <v>0.031043900329465243</v>
+      </c>
+      <c r="J25">
+        <v>0.021651557270760142</v>
+      </c>
+      <c r="K25">
+        <v>0.007796884199391692</v>
+      </c>
+      <c r="L25">
+        <v>0.031339013672285039</v>
+      </c>
+      <c r="M25">
+        <v>0.041636149043766051</v>
+      </c>
+      <c r="N25">
+        <v>0.0013023716779337934</v>
+      </c>
+      <c r="O25">
+        <v>0.0025801002954515123</v>
+      </c>
+      <c r="P25">
+        <v>0.00030445677432997713</v>
+      </c>
+      <c r="Q25">
+        <v>0.050052199694410236</v>
+      </c>
+      <c r="R25">
+        <v>0.13164131806047338</v>
+      </c>
+      <c r="S25">
+        <v>0.18918994615097151</v>
+      </c>
+      <c r="T25">
+        <v>0.13194674830876904</v>
+      </c>
+      <c r="U25">
+        <v>0.0066428010359626628</v>
+      </c>
+      <c r="V25">
+        <v>0.0033836742957704343</v>
+      </c>
+      <c r="W25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.010589290353235324</v>
+      </c>
+      <c r="C26">
+        <v>0.003087980677550224</v>
+      </c>
+      <c r="D26">
+        <v>0.020526737256234925</v>
+      </c>
+      <c r="E26">
+        <v>0.001755601209647096</v>
+      </c>
+      <c r="F26">
+        <v>0.080576996283075727</v>
+      </c>
+      <c r="G26">
+        <v>0.053780085487410513</v>
+      </c>
+      <c r="H26">
+        <v>0.17917218792310555</v>
+      </c>
+      <c r="I26">
+        <v>0.031043900329465243</v>
+      </c>
+      <c r="J26">
+        <v>0.021651557270760142</v>
+      </c>
+      <c r="K26">
+        <v>0.007796884199391692</v>
+      </c>
+      <c r="L26">
+        <v>0.031339013672285039</v>
+      </c>
+      <c r="M26">
+        <v>0.041636149043766051</v>
+      </c>
+      <c r="N26">
+        <v>0.0013023716779337934</v>
+      </c>
+      <c r="O26">
+        <v>0.0025801002954515123</v>
+      </c>
+      <c r="P26">
+        <v>0.00030445677432997713</v>
+      </c>
+      <c r="Q26">
+        <v>0.050052199694410236</v>
+      </c>
+      <c r="R26">
+        <v>0.13164131806047338</v>
+      </c>
+      <c r="S26">
+        <v>0.18918994615097151</v>
+      </c>
+      <c r="T26">
+        <v>0.13194674830876904</v>
+      </c>
+      <c r="U26">
+        <v>0.0066428010359626628</v>
+      </c>
+      <c r="V26">
+        <v>0.0033836742957704343</v>
+      </c>
+      <c r="W26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0.0097753028318073639</v>
+      </c>
+      <c r="C27">
+        <v>0.0016167388880546142</v>
+      </c>
+      <c r="D27">
+        <v>0.12528775361634914</v>
+      </c>
+      <c r="E27">
+        <v>0.0012042717496876952</v>
+      </c>
+      <c r="F27">
+        <v>0.06779719270011518</v>
+      </c>
+      <c r="G27">
+        <v>0.043368561815398651</v>
+      </c>
+      <c r="H27">
+        <v>0.18939082031781282</v>
+      </c>
+      <c r="I27">
+        <v>0.040690785844055589</v>
+      </c>
+      <c r="J27">
+        <v>0.015066635807308663</v>
+      </c>
+      <c r="K27">
+        <v>0.0055081865515301427</v>
+      </c>
+      <c r="L27">
+        <v>0.026933997039937929</v>
+      </c>
+      <c r="M27">
+        <v>0.046450581322440607</v>
+      </c>
+      <c r="N27">
+        <v>0.0010717707261910236</v>
+      </c>
+      <c r="O27">
+        <v>0.0032253729591172633</v>
+      </c>
+      <c r="P27">
+        <v>0.00015591343606177909</v>
+      </c>
+      <c r="Q27">
+        <v>0.01450228874895171</v>
+      </c>
+      <c r="R27">
+        <v>0.12337397063628464</v>
+      </c>
+      <c r="S27">
+        <v>0.16878691685236755</v>
+      </c>
+      <c r="T27">
+        <v>0.10680763326509825</v>
+      </c>
+      <c r="U27">
+        <v>0.0058222096003713066</v>
+      </c>
+      <c r="V27">
+        <v>0.0031630952910581493</v>
+      </c>
+      <c r="W27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.010589290353235324</v>
+      </c>
+      <c r="C28">
+        <v>0.003087980677550224</v>
+      </c>
+      <c r="D28">
+        <v>0.020526737256234925</v>
+      </c>
+      <c r="E28">
+        <v>0.001755601209647096</v>
+      </c>
+      <c r="F28">
+        <v>0.080576996283075727</v>
+      </c>
+      <c r="G28">
+        <v>0.053780085487410513</v>
+      </c>
+      <c r="H28">
+        <v>0.17917218792310555</v>
+      </c>
+      <c r="I28">
+        <v>0.031043900329465243</v>
+      </c>
+      <c r="J28">
+        <v>0.021651557270760142</v>
+      </c>
+      <c r="K28">
+        <v>0.007796884199391692</v>
+      </c>
+      <c r="L28">
+        <v>0.031339013672285039</v>
+      </c>
+      <c r="M28">
+        <v>0.041636149043766051</v>
+      </c>
+      <c r="N28">
+        <v>0.0013023716779337934</v>
+      </c>
+      <c r="O28">
+        <v>0.0025801002954515123</v>
+      </c>
+      <c r="P28">
+        <v>0.00030445677432997713</v>
+      </c>
+      <c r="Q28">
+        <v>0.050052199694410236</v>
+      </c>
+      <c r="R28">
+        <v>0.13164131806047338</v>
+      </c>
+      <c r="S28">
+        <v>0.18918994615097151</v>
+      </c>
+      <c r="T28">
+        <v>0.13194674830876904</v>
+      </c>
+      <c r="U28">
+        <v>0.0066428010359626628</v>
+      </c>
+      <c r="V28">
+        <v>0.0033836742957704343</v>
+      </c>
+      <c r="W28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.010589290353235324</v>
+      </c>
+      <c r="C29">
+        <v>0.003087980677550224</v>
+      </c>
+      <c r="D29">
+        <v>0.020526737256234925</v>
+      </c>
+      <c r="E29">
+        <v>0.001755601209647096</v>
+      </c>
+      <c r="F29">
+        <v>0.080576996283075727</v>
+      </c>
+      <c r="G29">
+        <v>0.053780085487410513</v>
+      </c>
+      <c r="H29">
+        <v>0.17917218792310555</v>
+      </c>
+      <c r="I29">
+        <v>0.031043900329465243</v>
+      </c>
+      <c r="J29">
+        <v>0.021651557270760142</v>
+      </c>
+      <c r="K29">
+        <v>0.007796884199391692</v>
+      </c>
+      <c r="L29">
+        <v>0.031339013672285039</v>
+      </c>
+      <c r="M29">
+        <v>0.041636149043766051</v>
+      </c>
+      <c r="N29">
+        <v>0.0013023716779337934</v>
+      </c>
+      <c r="O29">
+        <v>0.0025801002954515123</v>
+      </c>
+      <c r="P29">
+        <v>0.00030445677432997713</v>
+      </c>
+      <c r="Q29">
+        <v>0.050052199694410236</v>
+      </c>
+      <c r="R29">
+        <v>0.13164131806047338</v>
+      </c>
+      <c r="S29">
+        <v>0.18918994615097151</v>
+      </c>
+      <c r="T29">
+        <v>0.13194674830876904</v>
+      </c>
+      <c r="U29">
+        <v>0.0066428010359626628</v>
+      </c>
+      <c r="V29">
+        <v>0.0033836742957704343</v>
+      </c>
+      <c r="W29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.0097753028318073639</v>
+      </c>
+      <c r="C30">
+        <v>0.0016167388880546142</v>
+      </c>
+      <c r="D30">
+        <v>0.12528775361634914</v>
+      </c>
+      <c r="E30">
+        <v>0.0012042717496876952</v>
+      </c>
+      <c r="F30">
+        <v>0.06779719270011518</v>
+      </c>
+      <c r="G30">
+        <v>0.043368561815398651</v>
+      </c>
+      <c r="H30">
+        <v>0.18939082031781282</v>
+      </c>
+      <c r="I30">
+        <v>0.040690785844055589</v>
+      </c>
+      <c r="J30">
+        <v>0.015066635807308663</v>
+      </c>
+      <c r="K30">
+        <v>0.0055081865515301427</v>
+      </c>
+      <c r="L30">
+        <v>0.026933997039937929</v>
+      </c>
+      <c r="M30">
+        <v>0.046450581322440607</v>
+      </c>
+      <c r="N30">
+        <v>0.0010717707261910236</v>
+      </c>
+      <c r="O30">
+        <v>0.0032253729591172633</v>
+      </c>
+      <c r="P30">
+        <v>0.00015591343606177909</v>
+      </c>
+      <c r="Q30">
+        <v>0.01450228874895171</v>
+      </c>
+      <c r="R30">
+        <v>0.12337397063628464</v>
+      </c>
+      <c r="S30">
+        <v>0.16878691685236755</v>
+      </c>
+      <c r="T30">
+        <v>0.10680763326509825</v>
+      </c>
+      <c r="U30">
+        <v>0.0058222096003713066</v>
+      </c>
+      <c r="V30">
+        <v>0.0031630952910581493</v>
+      </c>
+      <c r="W30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.0022679042302442137</v>
+      </c>
+      <c r="C31">
+        <v>0.08465594520276537</v>
+      </c>
+      <c r="D31">
+        <v>3.5735836850474824e-05</v>
+      </c>
+      <c r="E31">
+        <v>0.028491988321703181</v>
+      </c>
+      <c r="F31">
+        <v>0.029983434612257602</v>
+      </c>
+      <c r="G31">
+        <v>0.029351360338380053</v>
+      </c>
+      <c r="H31">
+        <v>0.064217951496454373</v>
+      </c>
+      <c r="I31">
+        <v>0.14247764876263203</v>
+      </c>
+      <c r="J31">
+        <v>0.010230733960278196</v>
+      </c>
+      <c r="K31">
+        <v>0.01198990458278959</v>
+      </c>
+      <c r="L31">
+        <v>0.019034611484465131</v>
+      </c>
+      <c r="M31">
+        <v>0.042324386857794723</v>
+      </c>
+      <c r="N31">
+        <v>0.00013025321294848693</v>
+      </c>
+      <c r="O31">
+        <v>0.00079954410811813913</v>
+      </c>
+      <c r="P31">
+        <v>0.0055897120849486307</v>
+      </c>
+      <c r="Q31">
+        <v>0.19723312929327377</v>
+      </c>
+      <c r="R31">
+        <v>0.094485660222953544</v>
+      </c>
+      <c r="S31">
+        <v>0.14187249223632228</v>
+      </c>
+      <c r="T31">
+        <v>0.086352913072214418</v>
+      </c>
+      <c r="U31">
+        <v>0.0043678446397350523</v>
+      </c>
+      <c r="V31">
+        <v>0.0041068454428708195</v>
+      </c>
+      <c r="W31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0.018525247307001939</v>
+      </c>
+      <c r="C32">
+        <v>0.0044603130167561698</v>
+      </c>
+      <c r="D32">
+        <v>0.075236910006521662</v>
+      </c>
+      <c r="E32">
+        <v>0.0016164620518478816</v>
+      </c>
+      <c r="F32">
+        <v>0.068873020072676344</v>
+      </c>
+      <c r="G32">
+        <v>0.040555450131473263</v>
+      </c>
+      <c r="H32">
+        <v>0.15544502192032883</v>
+      </c>
+      <c r="I32">
+        <v>0.043381928103653725</v>
+      </c>
+      <c r="J32">
+        <v>0.01624731449772588</v>
+      </c>
+      <c r="K32">
+        <v>0.0067290740889907859</v>
+      </c>
+      <c r="L32">
+        <v>0.02758582884091889</v>
+      </c>
+      <c r="M32">
+        <v>0.056778001961434094</v>
+      </c>
+      <c r="N32">
+        <v>0.0012596116653667349</v>
+      </c>
+      <c r="O32">
+        <v>0.0062907019185889351</v>
+      </c>
+      <c r="P32">
+        <v>0.0003338830316383633</v>
+      </c>
+      <c r="Q32">
+        <v>0.041139677377266676</v>
+      </c>
+      <c r="R32">
+        <v>0.13488040241597885</v>
+      </c>
+      <c r="S32">
+        <v>0.17416277488820459</v>
+      </c>
+      <c r="T32">
+        <v>0.11584324993538708</v>
+      </c>
+      <c r="U32">
+        <v>0.0073263381953460301</v>
+      </c>
+      <c r="V32">
+        <v>0.0033287885728931614</v>
+      </c>
+      <c r="W32">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/outputs-HGR-r202/test-g__Streptococcus_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Streptococcus_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
     <t>Row</t>
   </si>
@@ -196,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -206,14 +206,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -252,78 +256,78 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -394,7 +398,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -465,7 +469,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -536,7 +540,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -607,7 +611,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -678,7 +682,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -749,7 +753,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -820,7 +824,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -891,7 +895,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -962,7 +966,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -1033,7 +1037,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1104,7 +1108,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -1175,7 +1179,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -1246,7 +1250,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -1317,7 +1321,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -1388,7 +1392,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1459,7 +1463,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1530,7 +1534,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1601,7 +1605,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1672,7 +1676,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -1743,7 +1747,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1814,7 +1818,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1885,7 +1889,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1956,7 +1960,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -2027,7 +2031,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -2098,7 +2102,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -2169,7 +2173,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -2240,7 +2244,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -2311,7 +2315,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -2382,7 +2386,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -2453,7 +2457,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32">
